--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 3.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 3.xlsx_with_dialog_acts.xlsx
@@ -1090,12 +1090,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1198,12 +1198,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2064,12 +2064,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2322,12 +2322,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2685,12 +2685,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
